--- a/BVNSA/Volumen negociado.xlsx
+++ b/BVNSA/Volumen negociado.xlsx
@@ -415,7 +415,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3866798646.06</v>
+        <v>2740972283.92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9272790197.360001</v>
+        <v>12013762481.28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>872296519400.14</v>
+        <v>875037491684.0601</v>
       </c>
     </row>
   </sheetData>
@@ -469,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>45167251.62</v>
+        <v>48911168.01</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>139415647.13</v>
+        <v>188326815.14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>9475803770.27</v>
+        <v>9524714938.280001</v>
       </c>
     </row>
   </sheetData>
